--- a/testInfo.xlsx
+++ b/testInfo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t xml:space="preserve">Testname </t>
   </si>
@@ -133,9 +133,6 @@
     <t>Residual?</t>
   </si>
   <si>
-    <t>Dilution</t>
-  </si>
-  <si>
     <t>Extra feature</t>
   </si>
   <si>
@@ -233,13 +230,25 @@
   </si>
   <si>
     <t>ds256fd</t>
+  </si>
+  <si>
+    <t>Dilation</t>
+  </si>
+  <si>
+    <t>Results Folder</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +292,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -316,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +351,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J475"/>
+  <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,11 +832,13 @@
     <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="10" width="12.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+    <col min="12" max="12" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -830,28 +853,37 @@
         <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -861,63 +893,57 @@
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3">
-        <v>256</v>
-      </c>
-      <c r="I3" s="3">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3">
-        <v>256</v>
-      </c>
-      <c r="I4" s="3">
-        <v>256</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="13">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3">
         <v>256</v>
@@ -928,13 +954,16 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="13">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -946,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3">
         <v>256</v>
@@ -957,13 +986,17 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -973,7 +1006,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3">
         <v>256</v>
@@ -984,13 +1017,16 @@
       <c r="J7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -1002,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3">
         <v>256</v>
@@ -1013,15 +1049,18 @@
       <c r="J8" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="13">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1032,19 +1071,19 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1054,7 +1093,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="3">
         <v>16</v>
@@ -1062,13 +1101,16 @@
       <c r="I12" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1078,7 +1120,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3">
         <v>256</v>
@@ -1086,13 +1128,16 @@
       <c r="I13" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1104,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3">
         <v>256</v>
@@ -1112,23 +1157,26 @@
       <c r="I14" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="M14" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="3">
         <v>256</v>
@@ -1137,12 +1185,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -1152,15 +1200,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -1172,15 +1220,15 @@
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1189,15 +1237,15 @@
         <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1207,10 +1255,10 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3">
         <v>16</v>
@@ -1218,13 +1266,16 @@
       <c r="I19" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1234,10 +1285,10 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="3">
         <v>32</v>
@@ -1245,8 +1296,11 @@
       <c r="I20" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1254,7 +1308,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:10" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1265,42 +1319,46 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -1309,14 +1367,18 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="M26" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -1327,21 +1389,25 @@
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1352,10 +1418,10 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>28</v>
@@ -1367,7 +1433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>28</v>
@@ -2756,7 +2822,7 @@
       <c r="A475" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G21 G23:G39 G43:G1048576">
+  <conditionalFormatting sqref="G43:G1048576 G1:G21 G23:G39">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",G1)))</formula>
     </cfRule>

--- a/testInfo.xlsx
+++ b/testInfo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="276">
   <si>
     <t xml:space="preserve">Testname </t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>Multi-Kernel system with diluted and other kernel as per Pons et al.</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Deeper Models</t>
   </si>
 </sst>
 </file>
@@ -8929,10 +8935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,7 +9576,9 @@
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F33" s="38"/>
       <c r="G33" s="65"/>
       <c r="H33" s="38"/>
@@ -9580,7 +9588,9 @@
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F34" s="38"/>
       <c r="G34" s="65"/>
       <c r="H34" s="38"/>
@@ -9590,7 +9600,9 @@
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F35" s="38"/>
       <c r="G35" s="65"/>
       <c r="H35" s="38"/>
@@ -9610,7 +9622,9 @@
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>275</v>
+      </c>
       <c r="F37" s="38"/>
       <c r="G37" s="65"/>
       <c r="H37" s="38"/>
@@ -9620,7 +9634,9 @@
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F38" s="38"/>
       <c r="G38" s="65"/>
       <c r="H38" s="38"/>
@@ -9630,7 +9646,9 @@
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F39" s="38"/>
       <c r="G39" s="65"/>
       <c r="H39" s="38"/>
@@ -9640,7 +9658,9 @@
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="F40" s="38"/>
       <c r="G40" s="65"/>
       <c r="H40" s="38"/>
@@ -9713,9 +9733,16 @@
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="65"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48" s="66"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="65"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="66"/>
@@ -9740,6 +9767,9 @@
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="66"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
